--- a/car_sales.xlsx
+++ b/car_sales.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C493"/>
+  <dimension ref="A1:C540"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,21 +385,21 @@
         <v>그랜저</v>
       </c>
       <c r="B1" t="str">
-        <v>11648</v>
+        <v>9079</v>
       </c>
       <c r="C1" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>카니발</v>
+        <v>아반떼</v>
       </c>
       <c r="B2" t="str">
-        <v>9804</v>
+        <v>8368</v>
       </c>
       <c r="C2" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="3">
@@ -407,65 +407,65 @@
         <v>포터2</v>
       </c>
       <c r="B3" t="str">
-        <v>8062</v>
+        <v>7262</v>
       </c>
       <c r="C3" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>디올뉴투싼</v>
+        <v>카니발</v>
       </c>
       <c r="B4" t="str">
-        <v>7490</v>
+        <v>7073</v>
       </c>
       <c r="C4" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>아반떼</v>
+        <v>디올뉴투싼</v>
       </c>
       <c r="B5" t="str">
-        <v>7477</v>
+        <v>6904</v>
       </c>
       <c r="C5" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>쏘렌토</v>
+        <v>G80</v>
       </c>
       <c r="B6" t="str">
-        <v>7009</v>
+        <v>6730</v>
       </c>
       <c r="C6" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>신형K5</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B7" t="str">
-        <v>6870</v>
+        <v>5969</v>
       </c>
       <c r="C7" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>팰리세이드</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B8" t="str">
-        <v>5706</v>
+        <v>5383</v>
       </c>
       <c r="C8" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="9">
@@ -473,120 +473,120 @@
         <v>더뉴싼타페</v>
       </c>
       <c r="B9" t="str">
-        <v>5157</v>
+        <v>5318</v>
       </c>
       <c r="C9" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>봉고3</v>
+        <v>신형K5</v>
       </c>
       <c r="B10" t="str">
-        <v>5053</v>
+        <v>4575</v>
       </c>
       <c r="C10" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>G80</v>
+        <v>봉고3</v>
       </c>
       <c r="B11" t="str">
-        <v>5019</v>
+        <v>3766</v>
       </c>
       <c r="C11" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>셀토스</v>
+        <v>GV80</v>
       </c>
       <c r="B12" t="str">
-        <v>3547</v>
+        <v>3472</v>
       </c>
       <c r="C12" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>쏘나타</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B13" t="str">
-        <v>3531</v>
+        <v>3101</v>
       </c>
       <c r="C13" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>GV80</v>
+        <v>쏘나타</v>
       </c>
       <c r="B14" t="str">
-        <v>3258</v>
+        <v>2947</v>
       </c>
       <c r="C14" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>K7</v>
+        <v>모닝어반</v>
       </c>
       <c r="B15" t="str">
-        <v>3253</v>
+        <v>2938</v>
       </c>
       <c r="C15" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>그랜드스타렉스</v>
+        <v>레이</v>
       </c>
       <c r="B16" t="str">
-        <v>3047</v>
+        <v>2634</v>
       </c>
       <c r="C16" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>모닝어반</v>
+        <v>셀토스</v>
       </c>
       <c r="B17" t="str">
-        <v>3032</v>
+        <v>2316</v>
       </c>
       <c r="C17" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>레이</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B18" t="str">
-        <v>2759</v>
+        <v>2173</v>
       </c>
       <c r="C18" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>K7</v>
       </c>
       <c r="B19" t="str">
-        <v>2431</v>
+        <v>1997</v>
       </c>
       <c r="C19" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="20">
@@ -594,230 +594,230 @@
         <v>더뉴코나</v>
       </c>
       <c r="B20" t="str">
-        <v>2217</v>
+        <v>1710</v>
       </c>
       <c r="C20" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>K3</v>
+        <v>스포티지</v>
       </c>
       <c r="B21" t="str">
-        <v>1947</v>
+        <v>1667</v>
       </c>
       <c r="C21" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>니로</v>
+        <v>베뉴</v>
       </c>
       <c r="B22" t="str">
-        <v>1888</v>
+        <v>1475</v>
       </c>
       <c r="C22" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>모하비</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B23" t="str">
-        <v>1671</v>
+        <v>1415</v>
       </c>
       <c r="C23" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>스포티지</v>
+        <v>K3</v>
       </c>
       <c r="B24" t="str">
-        <v>1658</v>
+        <v>1392</v>
       </c>
       <c r="C24" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>니로</v>
       </c>
       <c r="B25" t="str">
-        <v>1507</v>
+        <v>1286</v>
       </c>
       <c r="C25" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>베뉴</v>
+        <v>모하비</v>
       </c>
       <c r="B26" t="str">
-        <v>1189</v>
+        <v>1268</v>
       </c>
       <c r="C26" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>G90</v>
+        <v>더뉴G70</v>
       </c>
       <c r="B27" t="str">
-        <v>925</v>
+        <v>1224</v>
       </c>
       <c r="C27" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>K9</v>
+        <v>G90</v>
       </c>
       <c r="B28" t="str">
-        <v>572</v>
+        <v>791</v>
       </c>
       <c r="C28" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>아이오닉</v>
+        <v>버스/특수(기아)</v>
       </c>
       <c r="B29" t="str">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="C29" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>K5</v>
+        <v>K9</v>
       </c>
       <c r="B30" t="str">
-        <v>473</v>
+        <v>622</v>
       </c>
       <c r="C30" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>스팅어마이스터</v>
+        <v>K5</v>
       </c>
       <c r="B31" t="str">
-        <v>366</v>
+        <v>457</v>
       </c>
       <c r="C31" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>넥쏘</v>
+        <v>스토닉</v>
       </c>
       <c r="B32" t="str">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C32" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>더뉴G70</v>
+        <v>스팅어마이스터</v>
       </c>
       <c r="B33" t="str">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C33" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>스토닉</v>
+        <v>넥쏘</v>
       </c>
       <c r="B34" t="str">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C34" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>버스/특수(기아)</v>
+        <v>쏘울</v>
       </c>
       <c r="B35" t="str">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C35" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>쏘울</v>
+        <v>GV70</v>
       </c>
       <c r="B36" t="str">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C36" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>벨로스터</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B37" t="str">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C37" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>카니발</v>
+        <v>투싼</v>
       </c>
       <c r="B38" t="str">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C38" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>GV70</v>
+        <v>아이오닉</v>
       </c>
       <c r="B39" t="str">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C39" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>i30</v>
+        <v>카니발</v>
       </c>
       <c r="B40" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" t="str">
-        <v>2020-11</v>
+        <v>2020-12</v>
       </c>
     </row>
     <row r="41">
@@ -825,142 +825,142 @@
         <v>그랜저</v>
       </c>
       <c r="B41" t="str">
-        <v>16586</v>
+        <v>11590</v>
       </c>
       <c r="C41" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>포터2</v>
+        <v>카니발</v>
       </c>
       <c r="B42" t="str">
-        <v>9174</v>
+        <v>9931</v>
       </c>
       <c r="C42" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>신형K5</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B43" t="str">
-        <v>7755</v>
+        <v>9151</v>
       </c>
       <c r="C43" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>팰리세이드</v>
+        <v>아반떼</v>
       </c>
       <c r="B44" t="str">
-        <v>6293</v>
+        <v>9136</v>
       </c>
       <c r="C44" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>봉고3</v>
+        <v>포터2</v>
       </c>
       <c r="B45" t="str">
-        <v>6039</v>
+        <v>8995</v>
       </c>
       <c r="C45" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>셀토스</v>
+        <v>신형K5</v>
       </c>
       <c r="B46" t="str">
-        <v>6035</v>
+        <v>7056</v>
       </c>
       <c r="C46" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>싼타페</v>
+        <v>봉고3</v>
       </c>
       <c r="B47" t="str">
-        <v>5788</v>
+        <v>6206</v>
       </c>
       <c r="C47" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>쏘나타</v>
+        <v>G80</v>
       </c>
       <c r="B48" t="str">
-        <v>5524</v>
+        <v>6040</v>
       </c>
       <c r="C48" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>K7</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B49" t="str">
-        <v>5044</v>
+        <v>5069</v>
       </c>
       <c r="C49" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>코나</v>
+        <v>더뉴싼타페</v>
       </c>
       <c r="B50" t="str">
-        <v>5006</v>
+        <v>4496</v>
       </c>
       <c r="C50" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>모닝</v>
+        <v>셀토스</v>
       </c>
       <c r="B51" t="str">
-        <v>4126</v>
+        <v>3882</v>
       </c>
       <c r="C51" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>아반떼</v>
+        <v>코나</v>
       </c>
       <c r="B52" t="str">
-        <v>3886</v>
+        <v>3109</v>
       </c>
       <c r="C52" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>K3</v>
+        <v>쏘나타</v>
       </c>
       <c r="B53" t="str">
-        <v>3442</v>
+        <v>3074</v>
       </c>
       <c r="C53" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="54">
@@ -968,43 +968,43 @@
         <v>GV80</v>
       </c>
       <c r="B54" t="str">
-        <v>3268</v>
+        <v>2918</v>
       </c>
       <c r="C54" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>카니발</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B55" t="str">
-        <v>3179</v>
+        <v>2820</v>
       </c>
       <c r="C55" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>그랜드스타렉스</v>
+        <v>모닝어반</v>
       </c>
       <c r="B56" t="str">
-        <v>2897</v>
+        <v>2437</v>
       </c>
       <c r="C56" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>K7</v>
       </c>
       <c r="B57" t="str">
-        <v>2700</v>
+        <v>2344</v>
       </c>
       <c r="C57" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="58">
@@ -1012,10 +1012,10 @@
         <v>레이</v>
       </c>
       <c r="B58" t="str">
-        <v>2631</v>
+        <v>2294</v>
       </c>
       <c r="C58" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="59">
@@ -1023,54 +1023,54 @@
         <v>투싼</v>
       </c>
       <c r="B59" t="str">
-        <v>2612</v>
+        <v>2196</v>
       </c>
       <c r="C59" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>모하비</v>
+        <v>니로</v>
       </c>
       <c r="B60" t="str">
-        <v>2549</v>
+        <v>1661</v>
       </c>
       <c r="C60" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>쏘렌토</v>
+        <v>K3</v>
       </c>
       <c r="B61" t="str">
-        <v>2318</v>
+        <v>1648</v>
       </c>
       <c r="C61" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>니로</v>
+        <v>베뉴</v>
       </c>
       <c r="B62" t="str">
-        <v>2279</v>
+        <v>1575</v>
       </c>
       <c r="C62" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>베뉴</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B63" t="str">
-        <v>2121</v>
+        <v>1562</v>
       </c>
       <c r="C63" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="64">
@@ -1078,32 +1078,32 @@
         <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B64" t="str">
-        <v>1729</v>
+        <v>1515</v>
       </c>
       <c r="C64" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>스포티지</v>
+        <v>모하비</v>
       </c>
       <c r="B65" t="str">
-        <v>1614</v>
+        <v>1288</v>
       </c>
       <c r="C65" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>쏘렌토</v>
+        <v>스포티지</v>
       </c>
       <c r="B66" t="str">
-        <v>1557</v>
+        <v>1263</v>
       </c>
       <c r="C66" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="67">
@@ -1111,32 +1111,32 @@
         <v>G90</v>
       </c>
       <c r="B67" t="str">
-        <v>1209</v>
+        <v>882</v>
       </c>
       <c r="C67" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>G70</v>
+        <v>K9</v>
       </c>
       <c r="B68" t="str">
-        <v>1109</v>
+        <v>556</v>
       </c>
       <c r="C68" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>K9</v>
+        <v>스팅어마이스터</v>
       </c>
       <c r="B69" t="str">
-        <v>861</v>
+        <v>465</v>
       </c>
       <c r="C69" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="70">
@@ -1144,131 +1144,131 @@
         <v>넥쏘</v>
       </c>
       <c r="B70" t="str">
-        <v>706</v>
+        <v>461</v>
       </c>
       <c r="C70" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>아이오닉</v>
+        <v>G70</v>
       </c>
       <c r="B71" t="str">
-        <v>685</v>
+        <v>451</v>
       </c>
       <c r="C71" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>G80</v>
+        <v>K5</v>
       </c>
       <c r="B72" t="str">
-        <v>546</v>
+        <v>429</v>
       </c>
       <c r="C72" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>스토닉</v>
+        <v>마이티</v>
       </c>
       <c r="B73" t="str">
-        <v>486</v>
+        <v>409</v>
       </c>
       <c r="C73" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>K5</v>
+        <v>스토닉</v>
       </c>
       <c r="B74" t="str">
-        <v>438</v>
+        <v>258</v>
       </c>
       <c r="C74" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>스팅어</v>
+        <v>아이오닉</v>
       </c>
       <c r="B75" t="str">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="C75" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>쏘울</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B76" t="str">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="C76" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>버스/특수(기아)</v>
+        <v>카니발</v>
       </c>
       <c r="B77" t="str">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="C77" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>벨로스터</v>
+        <v>카운티</v>
       </c>
       <c r="B78" t="str">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C78" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>벨로스터-N</v>
+        <v>벨로스터</v>
       </c>
       <c r="B79" t="str">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C79" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>쏠라티</v>
+        <v>쏘울</v>
       </c>
       <c r="B80" t="str">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>G80</v>
+        <v>i30</v>
       </c>
       <c r="B81" t="str">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="82">
@@ -1276,40 +1276,40 @@
         <v>K3GT</v>
       </c>
       <c r="B82" t="str">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C82" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>i30</v>
+        <v>쏠라티</v>
       </c>
       <c r="B83" t="str">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C83" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>그랜저</v>
+        <v>싼타페</v>
       </c>
       <c r="B84" t="str">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C84" t="str">
-        <v>2020-03</v>
+        <v>2020-09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>그랜저</v>
+        <v>버스(기아)</v>
       </c>
       <c r="B85" t="str">
-        <v>11590</v>
+        <v>23</v>
       </c>
       <c r="C85" t="str">
         <v>2020-09</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>카니발</v>
+        <v>스팅어</v>
       </c>
       <c r="B86" t="str">
-        <v>9931</v>
+        <v>1</v>
       </c>
       <c r="C86" t="str">
         <v>2020-09</v>
@@ -1328,178 +1328,178 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>쏘렌토</v>
+        <v>포터2</v>
       </c>
       <c r="B87" t="str">
-        <v>9151</v>
+        <v>7875</v>
       </c>
       <c r="C87" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>아반떼</v>
+        <v>그랜저</v>
       </c>
       <c r="B88" t="str">
-        <v>9136</v>
+        <v>7519</v>
       </c>
       <c r="C88" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>포터2</v>
+        <v>신형K5</v>
       </c>
       <c r="B89" t="str">
-        <v>8995</v>
+        <v>3887</v>
       </c>
       <c r="C89" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>신형K5</v>
+        <v>봉고3</v>
       </c>
       <c r="B90" t="str">
-        <v>7056</v>
+        <v>3630</v>
       </c>
       <c r="C90" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>봉고3</v>
+        <v>모닝</v>
       </c>
       <c r="B91" t="str">
-        <v>6206</v>
+        <v>3310</v>
       </c>
       <c r="C91" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>G80</v>
+        <v>쏘나타</v>
       </c>
       <c r="B92" t="str">
-        <v>6040</v>
+        <v>3239</v>
       </c>
       <c r="C92" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>팰리세이드</v>
+        <v>싼타페</v>
       </c>
       <c r="B93" t="str">
-        <v>5069</v>
+        <v>2978</v>
       </c>
       <c r="C93" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>더뉴싼타페</v>
+        <v>셀토스</v>
       </c>
       <c r="B94" t="str">
-        <v>4496</v>
+        <v>2869</v>
       </c>
       <c r="C94" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>셀토스</v>
+        <v>K7</v>
       </c>
       <c r="B95" t="str">
-        <v>3882</v>
+        <v>2850</v>
       </c>
       <c r="C95" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>코나</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B96" t="str">
-        <v>3109</v>
+        <v>2618</v>
       </c>
       <c r="C96" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>쏘나타</v>
+        <v>아반떼</v>
       </c>
       <c r="B97" t="str">
-        <v>3074</v>
+        <v>2575</v>
       </c>
       <c r="C97" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>GV80</v>
+        <v>카니발</v>
       </c>
       <c r="B98" t="str">
-        <v>2918</v>
+        <v>2510</v>
       </c>
       <c r="C98" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>그랜드스타렉스</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B99" t="str">
-        <v>2820</v>
+        <v>1998</v>
       </c>
       <c r="C99" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>모닝어반</v>
+        <v>니로</v>
       </c>
       <c r="B100" t="str">
-        <v>2437</v>
+        <v>1935</v>
       </c>
       <c r="C100" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>K7</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B101" t="str">
-        <v>2344</v>
+        <v>1783</v>
       </c>
       <c r="C101" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>레이</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B102" t="str">
-        <v>2294</v>
+        <v>1776</v>
       </c>
       <c r="C102" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="103">
@@ -1507,87 +1507,87 @@
         <v>투싼</v>
       </c>
       <c r="B103" t="str">
-        <v>2196</v>
+        <v>1534</v>
       </c>
       <c r="C103" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>니로</v>
+        <v>코나</v>
       </c>
       <c r="B104" t="str">
-        <v>1661</v>
+        <v>1459</v>
       </c>
       <c r="C104" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>K3</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B105" t="str">
-        <v>1648</v>
+        <v>1268</v>
       </c>
       <c r="C105" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>베뉴</v>
+        <v>레이</v>
       </c>
       <c r="B106" t="str">
-        <v>1575</v>
+        <v>1220</v>
       </c>
       <c r="C106" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>GV80</v>
       </c>
       <c r="B107" t="str">
-        <v>1562</v>
+        <v>1176</v>
       </c>
       <c r="C107" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>스포티지</v>
       </c>
       <c r="B108" t="str">
-        <v>1515</v>
+        <v>1165</v>
       </c>
       <c r="C108" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>모하비</v>
+        <v>K3</v>
       </c>
       <c r="B109" t="str">
-        <v>1288</v>
+        <v>878</v>
       </c>
       <c r="C109" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>스포티지</v>
+        <v>G80</v>
       </c>
       <c r="B110" t="str">
-        <v>1263</v>
+        <v>783</v>
       </c>
       <c r="C110" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="111">
@@ -1595,10 +1595,10 @@
         <v>G90</v>
       </c>
       <c r="B111" t="str">
-        <v>882</v>
+        <v>683</v>
       </c>
       <c r="C111" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="112">
@@ -1606,32 +1606,32 @@
         <v>K9</v>
       </c>
       <c r="B112" t="str">
-        <v>556</v>
+        <v>671</v>
       </c>
       <c r="C112" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>스팅어마이스터</v>
+        <v>모하비</v>
       </c>
       <c r="B113" t="str">
-        <v>465</v>
+        <v>621</v>
       </c>
       <c r="C113" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>넥쏘</v>
+        <v>베뉴</v>
       </c>
       <c r="B114" t="str">
-        <v>461</v>
+        <v>584</v>
       </c>
       <c r="C114" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="115">
@@ -1639,10 +1639,10 @@
         <v>G70</v>
       </c>
       <c r="B115" t="str">
-        <v>451</v>
+        <v>549</v>
       </c>
       <c r="C115" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="116">
@@ -1650,21 +1650,21 @@
         <v>K5</v>
       </c>
       <c r="B116" t="str">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="C116" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>마이티</v>
+        <v>넥쏘</v>
       </c>
       <c r="B117" t="str">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="C117" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="118">
@@ -1672,150 +1672,150 @@
         <v>스토닉</v>
       </c>
       <c r="B118" t="str">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="C118" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>아이오닉</v>
+        <v>스팅어</v>
       </c>
       <c r="B119" t="str">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C119" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>벨로스터-N</v>
+        <v>아이오닉</v>
       </c>
       <c r="B120" t="str">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C120" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>카니발</v>
+        <v>벨로스터</v>
       </c>
       <c r="B121" t="str">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="C121" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>카운티</v>
+        <v>K3GT</v>
       </c>
       <c r="B122" t="str">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C122" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>벨로스터</v>
+        <v>K7가솔린2.4/버스</v>
       </c>
       <c r="B123" t="str">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C123" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>쏘울</v>
+        <v>쏠라티</v>
       </c>
       <c r="B124" t="str">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C124" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>i30</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B125" t="str">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C125" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>K3GT</v>
+        <v>쏘울</v>
       </c>
       <c r="B126" t="str">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C126" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>쏠라티</v>
+        <v>i30</v>
       </c>
       <c r="B127" t="str">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C127" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>싼타페</v>
+        <v>그랜저</v>
       </c>
       <c r="B128" t="str">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C128" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>버스(기아)</v>
+        <v>K5하이브리드</v>
       </c>
       <c r="B129" t="str">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C129" t="str">
-        <v>2020-09</v>
+        <v>2020-02</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>스팅어</v>
+        <v>그랜저</v>
       </c>
       <c r="B130" t="str">
-        <v>1</v>
+        <v>15688</v>
       </c>
       <c r="C130" t="str">
-        <v>2020-09</v>
+        <v>2020-06</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>그랜저</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B131" t="str">
-        <v>15688</v>
+        <v>11596</v>
       </c>
       <c r="C131" t="str">
         <v>2020-06</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>쏘렌토</v>
+        <v>아반떼</v>
       </c>
       <c r="B132" t="str">
-        <v>11596</v>
+        <v>10844</v>
       </c>
       <c r="C132" t="str">
         <v>2020-06</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>아반떼</v>
+        <v>신형K5</v>
       </c>
       <c r="B133" t="str">
-        <v>10844</v>
+        <v>9635</v>
       </c>
       <c r="C133" t="str">
         <v>2020-06</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>신형K5</v>
+        <v>G80</v>
       </c>
       <c r="B134" t="str">
-        <v>9635</v>
+        <v>7889</v>
       </c>
       <c r="C134" t="str">
         <v>2020-06</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>G80</v>
+        <v>포터2</v>
       </c>
       <c r="B135" t="str">
-        <v>7889</v>
+        <v>7641</v>
       </c>
       <c r="C135" t="str">
         <v>2020-06</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>포터2</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B136" t="str">
-        <v>7641</v>
+        <v>6895</v>
       </c>
       <c r="C136" t="str">
         <v>2020-06</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>팰리세이드</v>
+        <v>쏘나타</v>
       </c>
       <c r="B137" t="str">
-        <v>6895</v>
+        <v>6188</v>
       </c>
       <c r="C137" t="str">
         <v>2020-06</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>쏘나타</v>
+        <v>봉고3</v>
       </c>
       <c r="B138" t="str">
-        <v>6188</v>
+        <v>5793</v>
       </c>
       <c r="C138" t="str">
         <v>2020-06</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>봉고3</v>
+        <v>K7</v>
       </c>
       <c r="B139" t="str">
-        <v>5793</v>
+        <v>5652</v>
       </c>
       <c r="C139" t="str">
         <v>2020-06</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>K7</v>
+        <v>셀토스</v>
       </c>
       <c r="B140" t="str">
-        <v>5652</v>
+        <v>5536</v>
       </c>
       <c r="C140" t="str">
         <v>2020-06</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>셀토스</v>
+        <v>싼타페</v>
       </c>
       <c r="B141" t="str">
-        <v>5536</v>
+        <v>4901</v>
       </c>
       <c r="C141" t="str">
         <v>2020-06</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>싼타페</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B142" t="str">
-        <v>4901</v>
+        <v>4409</v>
       </c>
       <c r="C142" t="str">
         <v>2020-06</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>그랜드스타렉스</v>
+        <v>GV80</v>
       </c>
       <c r="B143" t="str">
-        <v>4409</v>
+        <v>3728</v>
       </c>
       <c r="C143" t="str">
         <v>2020-06</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>GV80</v>
+        <v>카니발</v>
       </c>
       <c r="B144" t="str">
-        <v>3728</v>
+        <v>3286</v>
       </c>
       <c r="C144" t="str">
         <v>2020-06</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>카니발</v>
+        <v>모닝어반</v>
       </c>
       <c r="B145" t="str">
-        <v>3286</v>
+        <v>3260</v>
       </c>
       <c r="C145" t="str">
         <v>2020-06</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>모닝어반</v>
+        <v>투싼</v>
       </c>
       <c r="B146" t="str">
-        <v>3260</v>
+        <v>3115</v>
       </c>
       <c r="C146" t="str">
         <v>2020-06</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>투싼</v>
+        <v>코나</v>
       </c>
       <c r="B147" t="str">
-        <v>3115</v>
+        <v>3076</v>
       </c>
       <c r="C147" t="str">
         <v>2020-06</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>코나</v>
+        <v>K3</v>
       </c>
       <c r="B148" t="str">
-        <v>3076</v>
+        <v>2787</v>
       </c>
       <c r="C148" t="str">
         <v>2020-06</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>K3</v>
+        <v>레이</v>
       </c>
       <c r="B149" t="str">
-        <v>2787</v>
+        <v>2670</v>
       </c>
       <c r="C149" t="str">
         <v>2020-06</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>레이</v>
+        <v>모하비</v>
       </c>
       <c r="B150" t="str">
-        <v>2670</v>
+        <v>2548</v>
       </c>
       <c r="C150" t="str">
         <v>2020-06</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>모하비</v>
+        <v>스포티지</v>
       </c>
       <c r="B151" t="str">
-        <v>2548</v>
+        <v>2455</v>
       </c>
       <c r="C151" t="str">
         <v>2020-06</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>스포티지</v>
+        <v>니로</v>
       </c>
       <c r="B152" t="str">
-        <v>2455</v>
+        <v>2272</v>
       </c>
       <c r="C152" t="str">
         <v>2020-06</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>니로</v>
+        <v>베뉴</v>
       </c>
       <c r="B153" t="str">
-        <v>2272</v>
+        <v>2175</v>
       </c>
       <c r="C153" t="str">
         <v>2020-06</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>베뉴</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B154" t="str">
-        <v>2175</v>
+        <v>1875</v>
       </c>
       <c r="C154" t="str">
         <v>2020-06</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B155" t="str">
-        <v>1875</v>
+        <v>1782</v>
       </c>
       <c r="C155" t="str">
         <v>2020-06</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>G70</v>
       </c>
       <c r="B156" t="str">
-        <v>1782</v>
+        <v>981</v>
       </c>
       <c r="C156" t="str">
         <v>2020-06</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>G70</v>
+        <v>K9</v>
       </c>
       <c r="B157" t="str">
-        <v>981</v>
+        <v>855</v>
       </c>
       <c r="C157" t="str">
         <v>2020-06</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>K9</v>
+        <v>G90</v>
       </c>
       <c r="B158" t="str">
-        <v>855</v>
+        <v>701</v>
       </c>
       <c r="C158" t="str">
         <v>2020-06</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>G90</v>
+        <v>K5</v>
       </c>
       <c r="B159" t="str">
-        <v>701</v>
+        <v>510</v>
       </c>
       <c r="C159" t="str">
         <v>2020-06</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>K5</v>
+        <v>스토닉</v>
       </c>
       <c r="B160" t="str">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C160" t="str">
         <v>2020-06</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>스토닉</v>
+        <v>마이티</v>
       </c>
       <c r="B161" t="str">
-        <v>502</v>
+        <v>337</v>
       </c>
       <c r="C161" t="str">
         <v>2020-06</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>마이티</v>
+        <v>넥쏘</v>
       </c>
       <c r="B162" t="str">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C162" t="str">
         <v>2020-06</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>넥쏘</v>
+        <v>스팅어</v>
       </c>
       <c r="B163" t="str">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C163" t="str">
         <v>2020-06</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>스팅어</v>
+        <v>아이오닉</v>
       </c>
       <c r="B164" t="str">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="C164" t="str">
         <v>2020-06</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>아이오닉</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B165" t="str">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C165" t="str">
         <v>2020-06</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>벨로스터-N</v>
+        <v>카운티</v>
       </c>
       <c r="B166" t="str">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C166" t="str">
         <v>2020-06</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>카운티</v>
+        <v>벨로스터</v>
       </c>
       <c r="B167" t="str">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="C167" t="str">
         <v>2020-06</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>벨로스터</v>
+        <v>쏘울</v>
       </c>
       <c r="B168" t="str">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C168" t="str">
         <v>2020-06</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>쏘울</v>
+        <v>K3GT</v>
       </c>
       <c r="B169" t="str">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="C169" t="str">
         <v>2020-06</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>K3GT</v>
+        <v>버스(기아)</v>
       </c>
       <c r="B170" t="str">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C170" t="str">
         <v>2020-06</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>버스(기아)</v>
+        <v>쏠라티</v>
       </c>
       <c r="B171" t="str">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C171" t="str">
         <v>2020-06</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>쏠라티</v>
+        <v>i30</v>
       </c>
       <c r="B172" t="str">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C172" t="str">
         <v>2020-06</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>i30</v>
+        <v>아반떼</v>
       </c>
       <c r="B173" t="str">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C173" t="str">
         <v>2020-06</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>아반떼</v>
+        <v>G80</v>
       </c>
       <c r="B174" t="str">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C174" t="str">
         <v>2020-06</v>
@@ -2296,35 +2296,35 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>G80</v>
+        <v>그랜저</v>
       </c>
       <c r="B175" t="str">
-        <v>16</v>
+        <v>15000</v>
       </c>
       <c r="C175" t="str">
-        <v>2020-06</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>그랜저</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B176" t="str">
-        <v>9196</v>
+        <v>9263</v>
       </c>
       <c r="C176" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>신형K5</v>
+        <v>아반떼</v>
       </c>
       <c r="B177" t="str">
-        <v>7603</v>
+        <v>8249</v>
       </c>
       <c r="C177" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="178">
@@ -2332,373 +2332,373 @@
         <v>포터2</v>
       </c>
       <c r="B178" t="str">
-        <v>7480</v>
+        <v>7570</v>
       </c>
       <c r="C178" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>팰리세이드</v>
+        <v>신형K5</v>
       </c>
       <c r="B179" t="str">
-        <v>5173</v>
+        <v>7522</v>
       </c>
       <c r="C179" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>쏘나타</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B180" t="str">
-        <v>4755</v>
+        <v>5873</v>
       </c>
       <c r="C180" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>봉고3</v>
+        <v>셀토스</v>
       </c>
       <c r="B181" t="str">
-        <v>4327</v>
+        <v>5597</v>
       </c>
       <c r="C181" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>K7</v>
+        <v>봉고3</v>
       </c>
       <c r="B182" t="str">
-        <v>3939</v>
+        <v>5459</v>
       </c>
       <c r="C182" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>셀토스</v>
+        <v>K7</v>
       </c>
       <c r="B183" t="str">
-        <v>3508</v>
+        <v>4772</v>
       </c>
       <c r="C183" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>카니발</v>
+        <v>GV80</v>
       </c>
       <c r="B184" t="str">
-        <v>3352</v>
+        <v>4324</v>
       </c>
       <c r="C184" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>싼타페</v>
+        <v>코나</v>
       </c>
       <c r="B185" t="str">
-        <v>3204</v>
+        <v>4288</v>
       </c>
       <c r="C185" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>모닝</v>
+        <v>G80</v>
       </c>
       <c r="B186" t="str">
-        <v>3103</v>
+        <v>4157</v>
       </c>
       <c r="C186" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>그랜드스타렉스</v>
+        <v>쏘나타</v>
       </c>
       <c r="B187" t="str">
-        <v>2648</v>
+        <v>3934</v>
       </c>
       <c r="C187" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>아반떼</v>
+        <v>싼타페</v>
       </c>
       <c r="B188" t="str">
-        <v>2638</v>
+        <v>3468</v>
       </c>
       <c r="C188" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>레이</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B189" t="str">
-        <v>2146</v>
+        <v>3075</v>
       </c>
       <c r="C189" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>모닝</v>
       </c>
       <c r="B190" t="str">
-        <v>1934</v>
+        <v>2960</v>
       </c>
       <c r="C190" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>코나</v>
+        <v>K3</v>
       </c>
       <c r="B191" t="str">
-        <v>1835</v>
+        <v>2541</v>
       </c>
       <c r="C191" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>쏘렌토</v>
+        <v>니로</v>
       </c>
       <c r="B192" t="str">
-        <v>1830</v>
+        <v>2300</v>
       </c>
       <c r="C192" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>투싼</v>
+        <v>레이</v>
       </c>
       <c r="B193" t="str">
-        <v>1766</v>
+        <v>2212</v>
       </c>
       <c r="C193" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>K3</v>
+        <v>모하비</v>
       </c>
       <c r="B194" t="str">
-        <v>1755</v>
+        <v>2143</v>
       </c>
       <c r="C194" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>베뉴</v>
+        <v>카니발</v>
       </c>
       <c r="B195" t="str">
-        <v>1710</v>
+        <v>2063</v>
       </c>
       <c r="C195" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>베뉴</v>
       </c>
       <c r="B196" t="str">
-        <v>1668</v>
+        <v>1974</v>
       </c>
       <c r="C196" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>모하비</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B197" t="str">
-        <v>1428</v>
+        <v>1948</v>
       </c>
       <c r="C197" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>G80</v>
+        <v>스포티지</v>
       </c>
       <c r="B198" t="str">
-        <v>1186</v>
+        <v>1749</v>
       </c>
       <c r="C198" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>스포티지</v>
+        <v>투싼</v>
       </c>
       <c r="B199" t="str">
-        <v>1175</v>
+        <v>1718</v>
       </c>
       <c r="C199" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>니로</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B200" t="str">
-        <v>1141</v>
+        <v>1451</v>
       </c>
       <c r="C200" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>G90</v>
+        <v>G70</v>
       </c>
       <c r="B201" t="str">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C201" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>G70</v>
+        <v>넥쏘</v>
       </c>
       <c r="B202" t="str">
-        <v>637</v>
+        <v>795</v>
       </c>
       <c r="C202" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>K9</v>
+        <v>G90</v>
       </c>
       <c r="B203" t="str">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="C203" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>K5</v>
+        <v>아이오닉</v>
       </c>
       <c r="B204" t="str">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="C204" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>GV80</v>
+        <v>K9</v>
       </c>
       <c r="B205" t="str">
-        <v>347</v>
+        <v>545</v>
       </c>
       <c r="C205" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>스토닉</v>
+        <v>K5</v>
       </c>
       <c r="B206" t="str">
-        <v>299</v>
+        <v>431</v>
       </c>
       <c r="C206" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>아이오닉</v>
+        <v>스토닉</v>
       </c>
       <c r="B207" t="str">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="C207" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>스팅어</v>
+        <v>마이티</v>
       </c>
       <c r="B208" t="str">
-        <v>157</v>
+        <v>350</v>
       </c>
       <c r="C208" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>그랜저</v>
+        <v>G80</v>
       </c>
       <c r="B209" t="str">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="C209" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>버스(기아)</v>
+        <v>카운티</v>
       </c>
       <c r="B210" t="str">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="C210" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>넥쏘</v>
+        <v>스팅어</v>
       </c>
       <c r="B211" t="str">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="C211" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="212">
@@ -2706,21 +2706,21 @@
         <v>쏘울</v>
       </c>
       <c r="B212" t="str">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C212" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>쏠라티</v>
+        <v>벨로스터</v>
       </c>
       <c r="B213" t="str">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C213" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="214">
@@ -2728,131 +2728,131 @@
         <v>벨로스터-N</v>
       </c>
       <c r="B214" t="str">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C214" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>K3GT</v>
+        <v>쏠라티</v>
       </c>
       <c r="B215" t="str">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C215" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>벨로스터</v>
+        <v>K3GT</v>
       </c>
       <c r="B216" t="str">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C216" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>i30</v>
+        <v>버스/특수(기아)</v>
       </c>
       <c r="B217" t="str">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C217" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>K5하이브리드</v>
+        <v>i30</v>
       </c>
       <c r="B218" t="str">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C218" t="str">
-        <v>2020-01</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>그랜저</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B219" t="str">
-        <v>13305</v>
+        <v>7</v>
       </c>
       <c r="C219" t="str">
-        <v>2020-07</v>
+        <v>2020-04</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>아반떼</v>
+        <v>그랜저</v>
       </c>
       <c r="B220" t="str">
-        <v>11036</v>
+        <v>10235</v>
       </c>
       <c r="C220" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>쏘렌토</v>
+        <v>포터2</v>
       </c>
       <c r="B221" t="str">
-        <v>9487</v>
+        <v>7118</v>
       </c>
       <c r="C221" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>포터2</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B222" t="str">
-        <v>9172</v>
+        <v>6116</v>
       </c>
       <c r="C222" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>신형K5</v>
+        <v>더뉴싼타페</v>
       </c>
       <c r="B223" t="str">
-        <v>7933</v>
+        <v>5842</v>
       </c>
       <c r="C223" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>봉고3</v>
+        <v>아반떼</v>
       </c>
       <c r="B224" t="str">
-        <v>6487</v>
+        <v>5792</v>
       </c>
       <c r="C224" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>G80</v>
+        <v>카니발</v>
       </c>
       <c r="B225" t="str">
-        <v>6464</v>
+        <v>4736</v>
       </c>
       <c r="C225" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="226">
@@ -2860,87 +2860,87 @@
         <v>팰리세이드</v>
       </c>
       <c r="B226" t="str">
-        <v>6071</v>
+        <v>4433</v>
       </c>
       <c r="C226" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>더뉴싼타페</v>
+        <v>G80</v>
       </c>
       <c r="B227" t="str">
-        <v>4734</v>
+        <v>4099</v>
       </c>
       <c r="C227" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>그랜드스타렉스</v>
+        <v>봉고3</v>
       </c>
       <c r="B228" t="str">
-        <v>4475</v>
+        <v>4018</v>
       </c>
       <c r="C228" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>셀토스</v>
+        <v>모닝어반</v>
       </c>
       <c r="B229" t="str">
-        <v>3966</v>
+        <v>3606</v>
       </c>
       <c r="C229" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>모닝어반</v>
+        <v>신형K5</v>
       </c>
       <c r="B230" t="str">
-        <v>3949</v>
+        <v>3514</v>
       </c>
       <c r="C230" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>쏘나타</v>
+        <v>셀토스</v>
       </c>
       <c r="B231" t="str">
-        <v>3569</v>
+        <v>3277</v>
       </c>
       <c r="C231" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>GV80</v>
+        <v>쏘나타</v>
       </c>
       <c r="B232" t="str">
-        <v>3009</v>
+        <v>3148</v>
       </c>
       <c r="C232" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>코나</v>
+        <v>레이</v>
       </c>
       <c r="B233" t="str">
-        <v>2922</v>
+        <v>2518</v>
       </c>
       <c r="C233" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="234">
@@ -2948,32 +2948,32 @@
         <v>K7</v>
       </c>
       <c r="B234" t="str">
-        <v>2715</v>
+        <v>2172</v>
       </c>
       <c r="C234" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>레이</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B235" t="str">
-        <v>2540</v>
+        <v>1951</v>
       </c>
       <c r="C235" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>카니발</v>
+        <v>GV80</v>
       </c>
       <c r="B236" t="str">
-        <v>2119</v>
+        <v>1810</v>
       </c>
       <c r="C236" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="237">
@@ -2981,197 +2981,197 @@
         <v>투싼</v>
       </c>
       <c r="B237" t="str">
-        <v>1686</v>
+        <v>1664</v>
       </c>
       <c r="C237" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>코나</v>
       </c>
       <c r="B238" t="str">
-        <v>1644</v>
+        <v>1574</v>
       </c>
       <c r="C238" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>모하비</v>
+        <v>K3</v>
       </c>
       <c r="B239" t="str">
-        <v>1632</v>
+        <v>1571</v>
       </c>
       <c r="C239" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>니로</v>
       </c>
       <c r="B240" t="str">
-        <v>1596</v>
+        <v>1498</v>
       </c>
       <c r="C240" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>베뉴</v>
+        <v>스포티지</v>
       </c>
       <c r="B241" t="str">
-        <v>1554</v>
+        <v>1472</v>
       </c>
       <c r="C241" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>싼타페</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B242" t="str">
-        <v>1518</v>
+        <v>1447</v>
       </c>
       <c r="C242" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>K3</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B243" t="str">
-        <v>1433</v>
+        <v>1390</v>
       </c>
       <c r="C243" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>니로</v>
+        <v>모하비</v>
       </c>
       <c r="B244" t="str">
-        <v>1418</v>
+        <v>1361</v>
       </c>
       <c r="C244" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>스포티지</v>
+        <v>베뉴</v>
       </c>
       <c r="B245" t="str">
-        <v>1272</v>
+        <v>1029</v>
       </c>
       <c r="C245" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>G90</v>
+        <v>카니발</v>
       </c>
       <c r="B246" t="str">
-        <v>1117</v>
+        <v>886</v>
       </c>
       <c r="C246" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>그랜저</v>
+        <v>G90</v>
       </c>
       <c r="B247" t="str">
-        <v>1076</v>
+        <v>704</v>
       </c>
       <c r="C247" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>K9</v>
+        <v>넥쏘</v>
       </c>
       <c r="B248" t="str">
-        <v>790</v>
+        <v>675</v>
       </c>
       <c r="C248" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>넥쏘</v>
+        <v>K9</v>
       </c>
       <c r="B249" t="str">
-        <v>700</v>
+        <v>579</v>
       </c>
       <c r="C249" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>K5</v>
+        <v>G70</v>
       </c>
       <c r="B250" t="str">
-        <v>530</v>
+        <v>448</v>
       </c>
       <c r="C250" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>G70</v>
+        <v>K5</v>
       </c>
       <c r="B251" t="str">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="C251" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>마이티</v>
+        <v>싼타페</v>
       </c>
       <c r="B252" t="str">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="C252" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>스토닉</v>
+        <v>마이티</v>
       </c>
       <c r="B253" t="str">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="C253" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>스팅어</v>
+        <v>스토닉</v>
       </c>
       <c r="B254" t="str">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="C254" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="255">
@@ -3179,32 +3179,32 @@
         <v>아이오닉</v>
       </c>
       <c r="B255" t="str">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C255" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>벨로스터-N</v>
+        <v>스팅어마이스터</v>
       </c>
       <c r="B256" t="str">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="C256" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>카운티</v>
+        <v>스팅어</v>
       </c>
       <c r="B257" t="str">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C257" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="258">
@@ -3212,98 +3212,98 @@
         <v>쏘울</v>
       </c>
       <c r="B258" t="str">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C258" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>벨로스터</v>
+        <v>i30</v>
       </c>
       <c r="B259" t="str">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C259" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>쏠라티</v>
+        <v>K3GT</v>
       </c>
       <c r="B260" t="str">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C260" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>K3GT</v>
+        <v>벨로스터</v>
       </c>
       <c r="B261" t="str">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C261" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>버스(기아)</v>
+        <v>쏠라티</v>
       </c>
       <c r="B262" t="str">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C262" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>i30</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B263" t="str">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C263" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>G80</v>
+        <v>버스(기아)</v>
       </c>
       <c r="B264" t="str">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C264" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>쏘렌토</v>
+        <v>G80</v>
       </c>
       <c r="B265" t="str">
         <v>1</v>
       </c>
       <c r="C265" t="str">
-        <v>2020-07</v>
+        <v>2020-08</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>아반떼</v>
+        <v>카니발</v>
       </c>
       <c r="B266" t="str">
-        <v>1</v>
+        <v>11979</v>
       </c>
       <c r="C266" t="str">
-        <v>2020-07</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="267">
@@ -3311,21 +3311,21 @@
         <v>그랜저</v>
       </c>
       <c r="B267" t="str">
-        <v>13416</v>
+        <v>10926</v>
       </c>
       <c r="C267" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>쏘렌토</v>
+        <v>포터2</v>
       </c>
       <c r="B268" t="str">
-        <v>9298</v>
+        <v>8523</v>
       </c>
       <c r="C268" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="269">
@@ -3333,109 +3333,109 @@
         <v>아반떼</v>
       </c>
       <c r="B269" t="str">
-        <v>8969</v>
+        <v>8316</v>
       </c>
       <c r="C269" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>신형K5</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B270" t="str">
-        <v>7709</v>
+        <v>7261</v>
       </c>
       <c r="C270" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>G80</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B271" t="str">
-        <v>7516</v>
+        <v>6514</v>
       </c>
       <c r="C271" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>포터2</v>
+        <v>봉고3</v>
       </c>
       <c r="B272" t="str">
-        <v>6322</v>
+        <v>5911</v>
       </c>
       <c r="C272" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>봉고3</v>
+        <v>G80</v>
       </c>
       <c r="B273" t="str">
-        <v>5986</v>
+        <v>5268</v>
       </c>
       <c r="C273" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>싼타페</v>
+        <v>신형K5</v>
       </c>
       <c r="B274" t="str">
-        <v>5765</v>
+        <v>5013</v>
       </c>
       <c r="C274" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>셀토스</v>
+        <v>쏘나타</v>
       </c>
       <c r="B275" t="str">
-        <v>5604</v>
+        <v>3928</v>
       </c>
       <c r="C275" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>K7</v>
+        <v>더뉴싼타페</v>
       </c>
       <c r="B276" t="str">
-        <v>4464</v>
+        <v>3856</v>
       </c>
       <c r="C276" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>쏘나타</v>
+        <v>셀토스</v>
       </c>
       <c r="B277" t="str">
-        <v>4230</v>
+        <v>3344</v>
       </c>
       <c r="C277" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>팰리세이드</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B278" t="str">
-        <v>4177</v>
+        <v>3254</v>
       </c>
       <c r="C278" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="279">
@@ -3443,175 +3443,175 @@
         <v>GV80</v>
       </c>
       <c r="B279" t="str">
-        <v>4164</v>
+        <v>2743</v>
       </c>
       <c r="C279" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>모닝</v>
+        <v>모닝어반</v>
       </c>
       <c r="B280" t="str">
-        <v>3452</v>
+        <v>2593</v>
       </c>
       <c r="C280" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>그랜드스타렉스</v>
+        <v>레이</v>
       </c>
       <c r="B281" t="str">
-        <v>3245</v>
+        <v>2501</v>
       </c>
       <c r="C281" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>카니발</v>
+        <v>투싼</v>
       </c>
       <c r="B282" t="str">
-        <v>2941</v>
+        <v>2221</v>
       </c>
       <c r="C282" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>코나</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B283" t="str">
-        <v>2913</v>
+        <v>1922</v>
       </c>
       <c r="C283" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>레이</v>
+        <v>K7</v>
       </c>
       <c r="B284" t="str">
-        <v>2405</v>
+        <v>1844</v>
       </c>
       <c r="C284" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>투싼</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B285" t="str">
-        <v>2353</v>
+        <v>1742</v>
       </c>
       <c r="C285" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>니로</v>
+        <v>K3</v>
       </c>
       <c r="B286" t="str">
-        <v>2227</v>
+        <v>1445</v>
       </c>
       <c r="C286" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>K3</v>
+        <v>스포티지</v>
       </c>
       <c r="B287" t="str">
-        <v>1975</v>
+        <v>1425</v>
       </c>
       <c r="C287" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>모하비</v>
       </c>
       <c r="B288" t="str">
-        <v>1751</v>
+        <v>1370</v>
       </c>
       <c r="C288" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>모하비</v>
+        <v>더뉴코나</v>
       </c>
       <c r="B289" t="str">
-        <v>1719</v>
+        <v>1341</v>
       </c>
       <c r="C289" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>니로</v>
       </c>
       <c r="B290" t="str">
-        <v>1597</v>
+        <v>1334</v>
       </c>
       <c r="C290" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>스포티지</v>
+        <v>베뉴</v>
       </c>
       <c r="B291" t="str">
-        <v>1509</v>
+        <v>1015</v>
       </c>
       <c r="C291" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>베뉴</v>
+        <v>G90</v>
       </c>
       <c r="B292" t="str">
-        <v>1325</v>
+        <v>915</v>
       </c>
       <c r="C292" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>G70</v>
+        <v>디올뉴투싼</v>
       </c>
       <c r="B293" t="str">
-        <v>613</v>
+        <v>842</v>
       </c>
       <c r="C293" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>G90</v>
+        <v>넥쏘</v>
       </c>
       <c r="B294" t="str">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="C294" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="295">
@@ -3619,175 +3619,175 @@
         <v>K9</v>
       </c>
       <c r="B295" t="str">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="C295" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>K5</v>
+        <v>스팅어마이스터</v>
       </c>
       <c r="B296" t="str">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="C296" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>아반떼</v>
+        <v>코나</v>
       </c>
       <c r="B297" t="str">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="C297" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>스토닉</v>
+        <v>K5</v>
       </c>
       <c r="B298" t="str">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="C298" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>마이티</v>
+        <v>아이오닉</v>
       </c>
       <c r="B299" t="str">
-        <v>378</v>
+        <v>234</v>
       </c>
       <c r="C299" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>넥쏘</v>
+        <v>G70</v>
       </c>
       <c r="B300" t="str">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C300" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>카운티</v>
+        <v>스토닉</v>
       </c>
       <c r="B301" t="str">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C301" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>아이오닉</v>
+        <v>마이티</v>
       </c>
       <c r="B302" t="str">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C302" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>쏘울</v>
+        <v>싼타페</v>
       </c>
       <c r="B303" t="str">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C303" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>스팅어</v>
+        <v>카운티</v>
       </c>
       <c r="B304" t="str">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C304" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>벨로스터</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B305" t="str">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C305" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>벨로스터-N</v>
+        <v>카니발</v>
       </c>
       <c r="B306" t="str">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C306" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>쏠라티</v>
+        <v>벨로스터</v>
       </c>
       <c r="B307" t="str">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C307" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>버스(기아)</v>
+        <v>쏘울</v>
       </c>
       <c r="B308" t="str">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C308" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>G80</v>
+        <v>K3GT</v>
       </c>
       <c r="B309" t="str">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C309" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>K3GT</v>
+        <v>쏠라티</v>
       </c>
       <c r="B310" t="str">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C310" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="311">
@@ -3795,384 +3795,384 @@
         <v>i30</v>
       </c>
       <c r="B311" t="str">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C311" t="str">
-        <v>2020-05</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>그랜저</v>
+        <v>버스(기아)</v>
       </c>
       <c r="B312" t="str">
-        <v>10235</v>
+        <v>31</v>
       </c>
       <c r="C312" t="str">
-        <v>2020-08</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>포터2</v>
+        <v>스팅어</v>
       </c>
       <c r="B313" t="str">
-        <v>7118</v>
+        <v>1</v>
       </c>
       <c r="C313" t="str">
-        <v>2020-08</v>
+        <v>2020-10</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>쏘렌토</v>
+        <v>그랜저</v>
       </c>
       <c r="B314" t="str">
-        <v>6116</v>
+        <v>16586</v>
       </c>
       <c r="C314" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>더뉴싼타페</v>
+        <v>포터2</v>
       </c>
       <c r="B315" t="str">
-        <v>5842</v>
+        <v>9174</v>
       </c>
       <c r="C315" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>아반떼</v>
+        <v>신형K5</v>
       </c>
       <c r="B316" t="str">
-        <v>5792</v>
+        <v>7755</v>
       </c>
       <c r="C316" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>카니발</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B317" t="str">
-        <v>4736</v>
+        <v>6293</v>
       </c>
       <c r="C317" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>팰리세이드</v>
+        <v>봉고3</v>
       </c>
       <c r="B318" t="str">
-        <v>4433</v>
+        <v>6039</v>
       </c>
       <c r="C318" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>G80</v>
+        <v>셀토스</v>
       </c>
       <c r="B319" t="str">
-        <v>4099</v>
+        <v>6035</v>
       </c>
       <c r="C319" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>봉고3</v>
+        <v>싼타페</v>
       </c>
       <c r="B320" t="str">
-        <v>4018</v>
+        <v>5788</v>
       </c>
       <c r="C320" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>모닝어반</v>
+        <v>쏘나타</v>
       </c>
       <c r="B321" t="str">
-        <v>3606</v>
+        <v>5524</v>
       </c>
       <c r="C321" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>신형K5</v>
+        <v>K7</v>
       </c>
       <c r="B322" t="str">
-        <v>3514</v>
+        <v>5044</v>
       </c>
       <c r="C322" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>셀토스</v>
+        <v>코나</v>
       </c>
       <c r="B323" t="str">
-        <v>3277</v>
+        <v>5006</v>
       </c>
       <c r="C323" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>쏘나타</v>
+        <v>모닝</v>
       </c>
       <c r="B324" t="str">
-        <v>3148</v>
+        <v>4126</v>
       </c>
       <c r="C324" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>레이</v>
+        <v>아반떼</v>
       </c>
       <c r="B325" t="str">
-        <v>2518</v>
+        <v>3886</v>
       </c>
       <c r="C325" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>K7</v>
+        <v>K3</v>
       </c>
       <c r="B326" t="str">
-        <v>2172</v>
+        <v>3442</v>
       </c>
       <c r="C326" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>그랜드스타렉스</v>
+        <v>GV80</v>
       </c>
       <c r="B327" t="str">
-        <v>1951</v>
+        <v>3268</v>
       </c>
       <c r="C327" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>GV80</v>
+        <v>카니발</v>
       </c>
       <c r="B328" t="str">
-        <v>1810</v>
+        <v>3179</v>
       </c>
       <c r="C328" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>투싼</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B329" t="str">
-        <v>1664</v>
+        <v>2897</v>
       </c>
       <c r="C329" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>코나</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B330" t="str">
-        <v>1574</v>
+        <v>2700</v>
       </c>
       <c r="C330" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>K3</v>
+        <v>레이</v>
       </c>
       <c r="B331" t="str">
-        <v>1571</v>
+        <v>2631</v>
       </c>
       <c r="C331" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>니로</v>
+        <v>투싼</v>
       </c>
       <c r="B332" t="str">
-        <v>1498</v>
+        <v>2612</v>
       </c>
       <c r="C332" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>스포티지</v>
+        <v>모하비</v>
       </c>
       <c r="B333" t="str">
-        <v>1472</v>
+        <v>2549</v>
       </c>
       <c r="C333" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B334" t="str">
-        <v>1447</v>
+        <v>2318</v>
       </c>
       <c r="C334" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>니로</v>
       </c>
       <c r="B335" t="str">
-        <v>1390</v>
+        <v>2279</v>
       </c>
       <c r="C335" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>모하비</v>
+        <v>베뉴</v>
       </c>
       <c r="B336" t="str">
-        <v>1361</v>
+        <v>2121</v>
       </c>
       <c r="C336" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>베뉴</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B337" t="str">
-        <v>1029</v>
+        <v>1729</v>
       </c>
       <c r="C337" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>카니발</v>
+        <v>스포티지</v>
       </c>
       <c r="B338" t="str">
-        <v>886</v>
+        <v>1614</v>
       </c>
       <c r="C338" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>G90</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B339" t="str">
-        <v>704</v>
+        <v>1557</v>
       </c>
       <c r="C339" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>넥쏘</v>
+        <v>G90</v>
       </c>
       <c r="B340" t="str">
-        <v>675</v>
+        <v>1209</v>
       </c>
       <c r="C340" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>K9</v>
+        <v>G70</v>
       </c>
       <c r="B341" t="str">
-        <v>579</v>
+        <v>1109</v>
       </c>
       <c r="C341" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>G70</v>
+        <v>K9</v>
       </c>
       <c r="B342" t="str">
-        <v>448</v>
+        <v>861</v>
       </c>
       <c r="C342" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>K5</v>
+        <v>넥쏘</v>
       </c>
       <c r="B343" t="str">
-        <v>430</v>
+        <v>706</v>
       </c>
       <c r="C343" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>싼타페</v>
+        <v>아이오닉</v>
       </c>
       <c r="B344" t="str">
-        <v>382</v>
+        <v>685</v>
       </c>
       <c r="C344" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>마이티</v>
+        <v>G80</v>
       </c>
       <c r="B345" t="str">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="C345" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="346">
@@ -4180,131 +4180,131 @@
         <v>스토닉</v>
       </c>
       <c r="B346" t="str">
-        <v>355</v>
+        <v>486</v>
       </c>
       <c r="C346" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>아이오닉</v>
+        <v>K5</v>
       </c>
       <c r="B347" t="str">
-        <v>264</v>
+        <v>438</v>
       </c>
       <c r="C347" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>스팅어마이스터</v>
+        <v>스팅어</v>
       </c>
       <c r="B348" t="str">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="C348" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>스팅어</v>
+        <v>쏘울</v>
       </c>
       <c r="B349" t="str">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C349" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>쏘울</v>
+        <v>버스/특수(기아)</v>
       </c>
       <c r="B350" t="str">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C350" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>i30</v>
+        <v>벨로스터</v>
       </c>
       <c r="B351" t="str">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C351" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>K3GT</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B352" t="str">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C352" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>벨로스터</v>
+        <v>쏠라티</v>
       </c>
       <c r="B353" t="str">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C353" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>쏠라티</v>
+        <v>G80</v>
       </c>
       <c r="B354" t="str">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C354" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>벨로스터-N</v>
+        <v>K3GT</v>
       </c>
       <c r="B355" t="str">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C355" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>버스(기아)</v>
+        <v>i30</v>
       </c>
       <c r="B356" t="str">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C356" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>G80</v>
+        <v>그랜저</v>
       </c>
       <c r="B357" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C357" t="str">
-        <v>2020-08</v>
+        <v>2020-03</v>
       </c>
     </row>
     <row r="358">
@@ -4312,252 +4312,252 @@
         <v>그랜저</v>
       </c>
       <c r="B358" t="str">
-        <v>15000</v>
+        <v>9196</v>
       </c>
       <c r="C358" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>쏘렌토</v>
+        <v>신형K5</v>
       </c>
       <c r="B359" t="str">
-        <v>9263</v>
+        <v>7603</v>
       </c>
       <c r="C359" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>아반떼</v>
+        <v>포터2</v>
       </c>
       <c r="B360" t="str">
-        <v>8249</v>
+        <v>7480</v>
       </c>
       <c r="C360" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>포터2</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B361" t="str">
-        <v>7570</v>
+        <v>5173</v>
       </c>
       <c r="C361" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>신형K5</v>
+        <v>쏘나타</v>
       </c>
       <c r="B362" t="str">
-        <v>7522</v>
+        <v>4755</v>
       </c>
       <c r="C362" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>팰리세이드</v>
+        <v>봉고3</v>
       </c>
       <c r="B363" t="str">
-        <v>5873</v>
+        <v>4327</v>
       </c>
       <c r="C363" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>셀토스</v>
+        <v>K7</v>
       </c>
       <c r="B364" t="str">
-        <v>5597</v>
+        <v>3939</v>
       </c>
       <c r="C364" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>봉고3</v>
+        <v>셀토스</v>
       </c>
       <c r="B365" t="str">
-        <v>5459</v>
+        <v>3508</v>
       </c>
       <c r="C365" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>K7</v>
+        <v>카니발</v>
       </c>
       <c r="B366" t="str">
-        <v>4772</v>
+        <v>3352</v>
       </c>
       <c r="C366" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>GV80</v>
+        <v>싼타페</v>
       </c>
       <c r="B367" t="str">
-        <v>4324</v>
+        <v>3204</v>
       </c>
       <c r="C367" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>코나</v>
+        <v>모닝</v>
       </c>
       <c r="B368" t="str">
-        <v>4288</v>
+        <v>3103</v>
       </c>
       <c r="C368" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>G80</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B369" t="str">
-        <v>4157</v>
+        <v>2648</v>
       </c>
       <c r="C369" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>쏘나타</v>
+        <v>아반떼</v>
       </c>
       <c r="B370" t="str">
-        <v>3934</v>
+        <v>2638</v>
       </c>
       <c r="C370" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>싼타페</v>
+        <v>레이</v>
       </c>
       <c r="B371" t="str">
-        <v>3468</v>
+        <v>2146</v>
       </c>
       <c r="C371" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>그랜드스타렉스</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B372" t="str">
-        <v>3075</v>
+        <v>1934</v>
       </c>
       <c r="C372" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>모닝</v>
+        <v>코나</v>
       </c>
       <c r="B373" t="str">
-        <v>2960</v>
+        <v>1835</v>
       </c>
       <c r="C373" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>K3</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B374" t="str">
-        <v>2541</v>
+        <v>1830</v>
       </c>
       <c r="C374" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>니로</v>
+        <v>투싼</v>
       </c>
       <c r="B375" t="str">
-        <v>2300</v>
+        <v>1766</v>
       </c>
       <c r="C375" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>레이</v>
+        <v>K3</v>
       </c>
       <c r="B376" t="str">
-        <v>2212</v>
+        <v>1755</v>
       </c>
       <c r="C376" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>모하비</v>
+        <v>베뉴</v>
       </c>
       <c r="B377" t="str">
-        <v>2143</v>
+        <v>1710</v>
       </c>
       <c r="C377" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>카니발</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B378" t="str">
-        <v>2063</v>
+        <v>1668</v>
       </c>
       <c r="C378" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>베뉴</v>
+        <v>모하비</v>
       </c>
       <c r="B379" t="str">
-        <v>1974</v>
+        <v>1428</v>
       </c>
       <c r="C379" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>G80</v>
       </c>
       <c r="B380" t="str">
-        <v>1948</v>
+        <v>1186</v>
       </c>
       <c r="C380" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="381">
@@ -4565,32 +4565,32 @@
         <v>스포티지</v>
       </c>
       <c r="B381" t="str">
-        <v>1749</v>
+        <v>1175</v>
       </c>
       <c r="C381" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>투싼</v>
+        <v>니로</v>
       </c>
       <c r="B382" t="str">
-        <v>1718</v>
+        <v>1141</v>
       </c>
       <c r="C382" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>G90</v>
       </c>
       <c r="B383" t="str">
-        <v>1451</v>
+        <v>830</v>
       </c>
       <c r="C383" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="384">
@@ -4598,230 +4598,230 @@
         <v>G70</v>
       </c>
       <c r="B384" t="str">
-        <v>826</v>
+        <v>637</v>
       </c>
       <c r="C384" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>넥쏘</v>
+        <v>K9</v>
       </c>
       <c r="B385" t="str">
-        <v>795</v>
+        <v>612</v>
       </c>
       <c r="C385" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>G90</v>
+        <v>K5</v>
       </c>
       <c r="B386" t="str">
-        <v>651</v>
+        <v>433</v>
       </c>
       <c r="C386" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>아이오닉</v>
+        <v>GV80</v>
       </c>
       <c r="B387" t="str">
-        <v>555</v>
+        <v>347</v>
       </c>
       <c r="C387" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>K9</v>
+        <v>스토닉</v>
       </c>
       <c r="B388" t="str">
-        <v>545</v>
+        <v>299</v>
       </c>
       <c r="C388" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>K5</v>
+        <v>아이오닉</v>
       </c>
       <c r="B389" t="str">
-        <v>431</v>
+        <v>164</v>
       </c>
       <c r="C389" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>스토닉</v>
+        <v>스팅어</v>
       </c>
       <c r="B390" t="str">
-        <v>357</v>
+        <v>157</v>
       </c>
       <c r="C390" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>마이티</v>
+        <v>그랜저</v>
       </c>
       <c r="B391" t="str">
-        <v>350</v>
+        <v>154</v>
       </c>
       <c r="C391" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>G80</v>
+        <v>버스(기아)</v>
       </c>
       <c r="B392" t="str">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="C392" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>카운티</v>
+        <v>넥쏘</v>
       </c>
       <c r="B393" t="str">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="C393" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>스팅어</v>
+        <v>쏘울</v>
       </c>
       <c r="B394" t="str">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="C394" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>쏘울</v>
+        <v>쏠라티</v>
       </c>
       <c r="B395" t="str">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C395" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>벨로스터</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B396" t="str">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="C396" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>벨로스터-N</v>
+        <v>K3GT</v>
       </c>
       <c r="B397" t="str">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C397" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>쏠라티</v>
+        <v>벨로스터</v>
       </c>
       <c r="B398" t="str">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C398" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>K3GT</v>
+        <v>i30</v>
       </c>
       <c r="B399" t="str">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C399" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>버스/특수(기아)</v>
+        <v>K5하이브리드</v>
       </c>
       <c r="B400" t="str">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C400" t="str">
-        <v>2020-04</v>
+        <v>2020-01</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>i30</v>
+        <v>그랜저</v>
       </c>
       <c r="B401" t="str">
-        <v>45</v>
+        <v>13305</v>
       </c>
       <c r="C401" t="str">
-        <v>2020-04</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>쏘렌토</v>
+        <v>아반떼</v>
       </c>
       <c r="B402" t="str">
-        <v>7</v>
+        <v>11036</v>
       </c>
       <c r="C402" t="str">
-        <v>2020-04</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>포터2</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B403" t="str">
-        <v>7875</v>
+        <v>9487</v>
       </c>
       <c r="C403" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>그랜저</v>
+        <v>포터2</v>
       </c>
       <c r="B404" t="str">
-        <v>7519</v>
+        <v>9172</v>
       </c>
       <c r="C404" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="405">
@@ -4829,10 +4829,10 @@
         <v>신형K5</v>
       </c>
       <c r="B405" t="str">
-        <v>3887</v>
+        <v>7933</v>
       </c>
       <c r="C405" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="406">
@@ -4840,142 +4840,142 @@
         <v>봉고3</v>
       </c>
       <c r="B406" t="str">
-        <v>3630</v>
+        <v>6487</v>
       </c>
       <c r="C406" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>모닝</v>
+        <v>G80</v>
       </c>
       <c r="B407" t="str">
-        <v>3310</v>
+        <v>6464</v>
       </c>
       <c r="C407" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>쏘나타</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B408" t="str">
-        <v>3239</v>
+        <v>6071</v>
       </c>
       <c r="C408" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>싼타페</v>
+        <v>더뉴싼타페</v>
       </c>
       <c r="B409" t="str">
-        <v>2978</v>
+        <v>4734</v>
       </c>
       <c r="C409" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>셀토스</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B410" t="str">
-        <v>2869</v>
+        <v>4475</v>
       </c>
       <c r="C410" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>K7</v>
+        <v>셀토스</v>
       </c>
       <c r="B411" t="str">
-        <v>2850</v>
+        <v>3966</v>
       </c>
       <c r="C411" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>팰리세이드</v>
+        <v>모닝어반</v>
       </c>
       <c r="B412" t="str">
-        <v>2618</v>
+        <v>3949</v>
       </c>
       <c r="C412" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>아반떼</v>
+        <v>쏘나타</v>
       </c>
       <c r="B413" t="str">
-        <v>2575</v>
+        <v>3569</v>
       </c>
       <c r="C413" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>카니발</v>
+        <v>GV80</v>
       </c>
       <c r="B414" t="str">
-        <v>2510</v>
+        <v>3009</v>
       </c>
       <c r="C414" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>쏘렌토</v>
+        <v>코나</v>
       </c>
       <c r="B415" t="str">
-        <v>1998</v>
+        <v>2922</v>
       </c>
       <c r="C415" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>니로</v>
+        <v>K7</v>
       </c>
       <c r="B416" t="str">
-        <v>1935</v>
+        <v>2715</v>
       </c>
       <c r="C416" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>레이</v>
       </c>
       <c r="B417" t="str">
-        <v>1783</v>
+        <v>2540</v>
       </c>
       <c r="C417" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>카니발</v>
       </c>
       <c r="B418" t="str">
-        <v>1776</v>
+        <v>2119</v>
       </c>
       <c r="C418" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="419">
@@ -4983,65 +4983,65 @@
         <v>투싼</v>
       </c>
       <c r="B419" t="str">
-        <v>1534</v>
+        <v>1686</v>
       </c>
       <c r="C419" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>코나</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B420" t="str">
-        <v>1459</v>
+        <v>1644</v>
       </c>
       <c r="C420" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>그랜드스타렉스</v>
+        <v>모하비</v>
       </c>
       <c r="B421" t="str">
-        <v>1268</v>
+        <v>1632</v>
       </c>
       <c r="C421" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>레이</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B422" t="str">
-        <v>1220</v>
+        <v>1596</v>
       </c>
       <c r="C422" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>GV80</v>
+        <v>베뉴</v>
       </c>
       <c r="B423" t="str">
-        <v>1176</v>
+        <v>1554</v>
       </c>
       <c r="C423" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>스포티지</v>
+        <v>싼타페</v>
       </c>
       <c r="B424" t="str">
-        <v>1165</v>
+        <v>1518</v>
       </c>
       <c r="C424" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="425">
@@ -5049,76 +5049,76 @@
         <v>K3</v>
       </c>
       <c r="B425" t="str">
-        <v>878</v>
+        <v>1433</v>
       </c>
       <c r="C425" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>G80</v>
+        <v>니로</v>
       </c>
       <c r="B426" t="str">
-        <v>783</v>
+        <v>1418</v>
       </c>
       <c r="C426" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>G90</v>
+        <v>스포티지</v>
       </c>
       <c r="B427" t="str">
-        <v>683</v>
+        <v>1272</v>
       </c>
       <c r="C427" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>K9</v>
+        <v>G90</v>
       </c>
       <c r="B428" t="str">
-        <v>671</v>
+        <v>1117</v>
       </c>
       <c r="C428" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>모하비</v>
+        <v>그랜저</v>
       </c>
       <c r="B429" t="str">
-        <v>621</v>
+        <v>1076</v>
       </c>
       <c r="C429" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>베뉴</v>
+        <v>K9</v>
       </c>
       <c r="B430" t="str">
-        <v>584</v>
+        <v>790</v>
       </c>
       <c r="C430" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>G70</v>
+        <v>넥쏘</v>
       </c>
       <c r="B431" t="str">
-        <v>549</v>
+        <v>700</v>
       </c>
       <c r="C431" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="432">
@@ -5126,241 +5126,241 @@
         <v>K5</v>
       </c>
       <c r="B432" t="str">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="C432" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>넥쏘</v>
+        <v>G70</v>
       </c>
       <c r="B433" t="str">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="C433" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>스토닉</v>
+        <v>마이티</v>
       </c>
       <c r="B434" t="str">
-        <v>289</v>
+        <v>435</v>
       </c>
       <c r="C434" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>스팅어</v>
+        <v>스토닉</v>
       </c>
       <c r="B435" t="str">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C435" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>아이오닉</v>
+        <v>스팅어</v>
       </c>
       <c r="B436" t="str">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="C436" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>벨로스터</v>
+        <v>아이오닉</v>
       </c>
       <c r="B437" t="str">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="C437" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>K3GT</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B438" t="str">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="C438" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>K7가솔린2.4/버스</v>
+        <v>카운티</v>
       </c>
       <c r="B439" t="str">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C439" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>쏠라티</v>
+        <v>쏘울</v>
       </c>
       <c r="B440" t="str">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C440" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>벨로스터-N</v>
+        <v>벨로스터</v>
       </c>
       <c r="B441" t="str">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C441" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>쏘울</v>
+        <v>쏠라티</v>
       </c>
       <c r="B442" t="str">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C442" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>i30</v>
+        <v>K3GT</v>
       </c>
       <c r="B443" t="str">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C443" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>그랜저</v>
+        <v>버스(기아)</v>
       </c>
       <c r="B444" t="str">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C444" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>K5하이브리드</v>
+        <v>i30</v>
       </c>
       <c r="B445" t="str">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C445" t="str">
-        <v>2020-02</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>카니발</v>
+        <v>G80</v>
       </c>
       <c r="B446" t="str">
-        <v>11979</v>
+        <v>40</v>
       </c>
       <c r="C446" t="str">
-        <v>2020-10</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>그랜저</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B447" t="str">
-        <v>10926</v>
+        <v>1</v>
       </c>
       <c r="C447" t="str">
-        <v>2020-10</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>포터2</v>
+        <v>아반떼</v>
       </c>
       <c r="B448" t="str">
-        <v>8523</v>
+        <v>1</v>
       </c>
       <c r="C448" t="str">
-        <v>2020-10</v>
+        <v>2020-07</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
-        <v>아반떼</v>
+        <v>그랜저</v>
       </c>
       <c r="B449" t="str">
-        <v>8316</v>
+        <v>11648</v>
       </c>
       <c r="C449" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
-        <v>쏘렌토</v>
+        <v>카니발</v>
       </c>
       <c r="B450" t="str">
-        <v>7261</v>
+        <v>9804</v>
       </c>
       <c r="C450" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>팰리세이드</v>
+        <v>포터2</v>
       </c>
       <c r="B451" t="str">
-        <v>6514</v>
+        <v>8062</v>
       </c>
       <c r="C451" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>봉고3</v>
+        <v>아반떼</v>
       </c>
       <c r="B452" t="str">
-        <v>5911</v>
+        <v>7477</v>
       </c>
       <c r="C452" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>G80</v>
+        <v>쏘렌토</v>
       </c>
       <c r="B453" t="str">
-        <v>5268</v>
+        <v>7009</v>
       </c>
       <c r="C453" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="454">
@@ -5368,384 +5368,384 @@
         <v>신형K5</v>
       </c>
       <c r="B454" t="str">
-        <v>5013</v>
+        <v>6870</v>
       </c>
       <c r="C454" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
-        <v>쏘나타</v>
+        <v>디올뉴투싼</v>
       </c>
       <c r="B455" t="str">
-        <v>3928</v>
+        <v>6214</v>
       </c>
       <c r="C455" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>더뉴싼타페</v>
+        <v>팰리세이드</v>
       </c>
       <c r="B456" t="str">
-        <v>3856</v>
+        <v>5706</v>
       </c>
       <c r="C456" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
-        <v>셀토스</v>
+        <v>봉고3</v>
       </c>
       <c r="B457" t="str">
-        <v>3344</v>
+        <v>5180</v>
       </c>
       <c r="C457" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>그랜드스타렉스</v>
+        <v>더뉴싼타페</v>
       </c>
       <c r="B458" t="str">
-        <v>3254</v>
+        <v>5114</v>
       </c>
       <c r="C458" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>GV80</v>
+        <v>G80</v>
       </c>
       <c r="B459" t="str">
-        <v>2743</v>
+        <v>5019</v>
       </c>
       <c r="C459" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>모닝어반</v>
+        <v>셀토스</v>
       </c>
       <c r="B460" t="str">
-        <v>2593</v>
+        <v>3547</v>
       </c>
       <c r="C460" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>레이</v>
+        <v>쏘나타</v>
       </c>
       <c r="B461" t="str">
-        <v>2501</v>
+        <v>3531</v>
       </c>
       <c r="C461" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
-        <v>투싼</v>
+        <v>GV80</v>
       </c>
       <c r="B462" t="str">
-        <v>2221</v>
+        <v>3258</v>
       </c>
       <c r="C462" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>버스/트럭(현대)</v>
+        <v>K7</v>
       </c>
       <c r="B463" t="str">
-        <v>1922</v>
+        <v>3253</v>
       </c>
       <c r="C463" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
-        <v>K7</v>
+        <v>그랜드스타렉스</v>
       </c>
       <c r="B464" t="str">
-        <v>1844</v>
+        <v>3047</v>
       </c>
       <c r="C464" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
-        <v>쏘나타뉴라이즈</v>
+        <v>모닝어반</v>
       </c>
       <c r="B465" t="str">
-        <v>1742</v>
+        <v>3032</v>
       </c>
       <c r="C465" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>K3</v>
+        <v>레이</v>
       </c>
       <c r="B466" t="str">
-        <v>1445</v>
+        <v>2759</v>
       </c>
       <c r="C466" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
-        <v>스포티지</v>
+        <v>버스/트럭(현대)</v>
       </c>
       <c r="B467" t="str">
-        <v>1425</v>
+        <v>2043</v>
       </c>
       <c r="C467" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>모하비</v>
+        <v>K3</v>
       </c>
       <c r="B468" t="str">
-        <v>1370</v>
+        <v>1901</v>
       </c>
       <c r="C468" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
-        <v>더뉴코나</v>
+        <v>니로</v>
       </c>
       <c r="B469" t="str">
-        <v>1341</v>
+        <v>1888</v>
       </c>
       <c r="C469" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
-        <v>니로</v>
+        <v>더뉴코나</v>
       </c>
       <c r="B470" t="str">
-        <v>1334</v>
+        <v>1840</v>
       </c>
       <c r="C470" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>베뉴</v>
+        <v>모하비</v>
       </c>
       <c r="B471" t="str">
-        <v>1015</v>
+        <v>1671</v>
       </c>
       <c r="C471" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>G90</v>
+        <v>스포티지</v>
       </c>
       <c r="B472" t="str">
-        <v>915</v>
+        <v>1658</v>
       </c>
       <c r="C472" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>디올뉴투싼</v>
+        <v>쏘나타뉴라이즈</v>
       </c>
       <c r="B473" t="str">
-        <v>842</v>
+        <v>1507</v>
       </c>
       <c r="C473" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
-        <v>넥쏘</v>
+        <v>투싼</v>
       </c>
       <c r="B474" t="str">
-        <v>640</v>
+        <v>1276</v>
       </c>
       <c r="C474" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>K9</v>
+        <v>베뉴</v>
       </c>
       <c r="B475" t="str">
-        <v>567</v>
+        <v>1189</v>
       </c>
       <c r="C475" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
-        <v>스팅어마이스터</v>
+        <v>G90</v>
       </c>
       <c r="B476" t="str">
-        <v>479</v>
+        <v>925</v>
       </c>
       <c r="C476" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
-        <v>코나</v>
+        <v>K9</v>
       </c>
       <c r="B477" t="str">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="C477" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
-        <v>K5</v>
+        <v>아이오닉</v>
       </c>
       <c r="B478" t="str">
-        <v>446</v>
+        <v>540</v>
       </c>
       <c r="C478" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>아이오닉</v>
+        <v>K5</v>
       </c>
       <c r="B479" t="str">
-        <v>234</v>
+        <v>473</v>
       </c>
       <c r="C479" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>G70</v>
+        <v>코나</v>
       </c>
       <c r="B480" t="str">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C480" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>스토닉</v>
+        <v>스팅어마이스터</v>
       </c>
       <c r="B481" t="str">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="C481" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>마이티</v>
+        <v>넥쏘</v>
       </c>
       <c r="B482" t="str">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="C482" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>싼타페</v>
+        <v>더뉴G70</v>
       </c>
       <c r="B483" t="str">
-        <v>147</v>
+        <v>350</v>
       </c>
       <c r="C483" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
-        <v>카운티</v>
+        <v>스토닉</v>
       </c>
       <c r="B484" t="str">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="C484" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
-        <v>벨로스터-N</v>
+        <v>마이티</v>
       </c>
       <c r="B485" t="str">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="C485" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>카니발</v>
+        <v>쏘울</v>
       </c>
       <c r="B486" t="str">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C486" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
-        <v>벨로스터</v>
+        <v>벨로스터-N</v>
       </c>
       <c r="B487" t="str">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C487" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>쏘울</v>
+        <v>카운티</v>
       </c>
       <c r="B488" t="str">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C488" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="489">
@@ -5753,10 +5753,10 @@
         <v>K3GT</v>
       </c>
       <c r="B489" t="str">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C489" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="490">
@@ -5764,21 +5764,21 @@
         <v>쏠라티</v>
       </c>
       <c r="B490" t="str">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C490" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
-        <v>i30</v>
+        <v>싼타페</v>
       </c>
       <c r="B491" t="str">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C491" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="492">
@@ -5786,26 +5786,543 @@
         <v>버스(기아)</v>
       </c>
       <c r="B492" t="str">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C492" t="str">
-        <v>2020-10</v>
+        <v>2020-11</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
+        <v>카니발</v>
+      </c>
+      <c r="B493" t="str">
+        <v>19</v>
+      </c>
+      <c r="C493" t="str">
+        <v>2020-11</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>GV70</v>
+      </c>
+      <c r="B494" t="str">
+        <v>15</v>
+      </c>
+      <c r="C494" t="str">
+        <v>2020-11</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>i30</v>
+      </c>
+      <c r="B495" t="str">
+        <v>2</v>
+      </c>
+      <c r="C495" t="str">
+        <v>2020-11</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>그랜저</v>
+      </c>
+      <c r="B496" t="str">
+        <v>13416</v>
+      </c>
+      <c r="C496" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>쏘렌토</v>
+      </c>
+      <c r="B497" t="str">
+        <v>9298</v>
+      </c>
+      <c r="C497" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>아반떼</v>
+      </c>
+      <c r="B498" t="str">
+        <v>8969</v>
+      </c>
+      <c r="C498" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>신형K5</v>
+      </c>
+      <c r="B499" t="str">
+        <v>7709</v>
+      </c>
+      <c r="C499" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>G80</v>
+      </c>
+      <c r="B500" t="str">
+        <v>7516</v>
+      </c>
+      <c r="C500" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>포터2</v>
+      </c>
+      <c r="B501" t="str">
+        <v>6322</v>
+      </c>
+      <c r="C501" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>봉고3</v>
+      </c>
+      <c r="B502" t="str">
+        <v>5986</v>
+      </c>
+      <c r="C502" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>싼타페</v>
+      </c>
+      <c r="B503" t="str">
+        <v>5765</v>
+      </c>
+      <c r="C503" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>셀토스</v>
+      </c>
+      <c r="B504" t="str">
+        <v>5604</v>
+      </c>
+      <c r="C504" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>K7</v>
+      </c>
+      <c r="B505" t="str">
+        <v>4464</v>
+      </c>
+      <c r="C505" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>쏘나타</v>
+      </c>
+      <c r="B506" t="str">
+        <v>4230</v>
+      </c>
+      <c r="C506" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>팰리세이드</v>
+      </c>
+      <c r="B507" t="str">
+        <v>4177</v>
+      </c>
+      <c r="C507" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>GV80</v>
+      </c>
+      <c r="B508" t="str">
+        <v>4164</v>
+      </c>
+      <c r="C508" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>모닝</v>
+      </c>
+      <c r="B509" t="str">
+        <v>3452</v>
+      </c>
+      <c r="C509" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>그랜드스타렉스</v>
+      </c>
+      <c r="B510" t="str">
+        <v>3245</v>
+      </c>
+      <c r="C510" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>카니발</v>
+      </c>
+      <c r="B511" t="str">
+        <v>2941</v>
+      </c>
+      <c r="C511" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>코나</v>
+      </c>
+      <c r="B512" t="str">
+        <v>2913</v>
+      </c>
+      <c r="C512" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>레이</v>
+      </c>
+      <c r="B513" t="str">
+        <v>2405</v>
+      </c>
+      <c r="C513" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>투싼</v>
+      </c>
+      <c r="B514" t="str">
+        <v>2353</v>
+      </c>
+      <c r="C514" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>니로</v>
+      </c>
+      <c r="B515" t="str">
+        <v>2227</v>
+      </c>
+      <c r="C515" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>K3</v>
+      </c>
+      <c r="B516" t="str">
+        <v>1975</v>
+      </c>
+      <c r="C516" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>버스/트럭(현대)</v>
+      </c>
+      <c r="B517" t="str">
+        <v>1751</v>
+      </c>
+      <c r="C517" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>모하비</v>
+      </c>
+      <c r="B518" t="str">
+        <v>1719</v>
+      </c>
+      <c r="C518" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>쏘나타뉴라이즈</v>
+      </c>
+      <c r="B519" t="str">
+        <v>1597</v>
+      </c>
+      <c r="C519" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>스포티지</v>
+      </c>
+      <c r="B520" t="str">
+        <v>1509</v>
+      </c>
+      <c r="C520" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>베뉴</v>
+      </c>
+      <c r="B521" t="str">
+        <v>1325</v>
+      </c>
+      <c r="C521" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>G70</v>
+      </c>
+      <c r="B522" t="str">
+        <v>613</v>
+      </c>
+      <c r="C522" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>G90</v>
+      </c>
+      <c r="B523" t="str">
+        <v>601</v>
+      </c>
+      <c r="C523" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>K9</v>
+      </c>
+      <c r="B524" t="str">
+        <v>601</v>
+      </c>
+      <c r="C524" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>K5</v>
+      </c>
+      <c r="B525" t="str">
+        <v>427</v>
+      </c>
+      <c r="C525" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>아반떼</v>
+      </c>
+      <c r="B526" t="str">
+        <v>413</v>
+      </c>
+      <c r="C526" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>스토닉</v>
+      </c>
+      <c r="B527" t="str">
+        <v>394</v>
+      </c>
+      <c r="C527" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>마이티</v>
+      </c>
+      <c r="B528" t="str">
+        <v>378</v>
+      </c>
+      <c r="C528" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>넥쏘</v>
+      </c>
+      <c r="B529" t="str">
+        <v>270</v>
+      </c>
+      <c r="C529" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>카운티</v>
+      </c>
+      <c r="B530" t="str">
+        <v>200</v>
+      </c>
+      <c r="C530" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>쏘울</v>
+      </c>
+      <c r="B531" t="str">
+        <v>183</v>
+      </c>
+      <c r="C531" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>아이오닉</v>
+      </c>
+      <c r="B532" t="str">
+        <v>183</v>
+      </c>
+      <c r="C532" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
         <v>스팅어</v>
       </c>
-      <c r="B493" t="str">
-        <v>1</v>
-      </c>
-      <c r="C493" t="str">
-        <v>2020-10</v>
+      <c r="B533" t="str">
+        <v>164</v>
+      </c>
+      <c r="C533" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>벨로스터</v>
+      </c>
+      <c r="B534" t="str">
+        <v>142</v>
+      </c>
+      <c r="C534" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>벨로스터-N</v>
+      </c>
+      <c r="B535" t="str">
+        <v>85</v>
+      </c>
+      <c r="C535" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>쏠라티</v>
+      </c>
+      <c r="B536" t="str">
+        <v>71</v>
+      </c>
+      <c r="C536" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>버스(기아)</v>
+      </c>
+      <c r="B537" t="str">
+        <v>70</v>
+      </c>
+      <c r="C537" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>G80</v>
+      </c>
+      <c r="B538" t="str">
+        <v>66</v>
+      </c>
+      <c r="C538" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>K3GT</v>
+      </c>
+      <c r="B539" t="str">
+        <v>54</v>
+      </c>
+      <c r="C539" t="str">
+        <v>2020-05</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>i30</v>
+      </c>
+      <c r="B540" t="str">
+        <v>45</v>
+      </c>
+      <c r="C540" t="str">
+        <v>2020-05</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C493"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C540"/>
   </ignoredErrors>
 </worksheet>
 </file>